--- a/3.ehome/02-项目计划/普及科技项目开发进度计划 V1.0.xlsx
+++ b/3.ehome/02-项目计划/普及科技项目开发进度计划 V1.0.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="136">
   <si>
     <t>项目进度计划</t>
   </si>
@@ -1424,7 +1424,7 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1621,6 +1621,9 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="28" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2196,10 +2199,10 @@
   <dimension ref="A1:T73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P56" sqref="P56"/>
+      <selection pane="bottomRight" activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2225,71 +2228,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" ht="39" customHeight="1">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="95" t="s">
+      <c r="E2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="86" t="s">
+      <c r="F2" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="89" t="s">
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A3" s="92"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="95"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="96"/>
       <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
@@ -2337,16 +2340,16 @@
       </c>
     </row>
     <row r="4" spans="1:20" s="3" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A4" s="66">
+      <c r="A4" s="67">
         <v>1</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="64"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="9"/>
       <c r="F4" s="10"/>
       <c r="G4" s="11"/>
@@ -2383,12 +2386,12 @@
       <c r="T4" s="17"/>
     </row>
     <row r="5" spans="1:20" s="3" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A5" s="67"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="63" t="s">
+      <c r="A5" s="68"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="64"/>
+      <c r="D5" s="65"/>
       <c r="E5" s="9"/>
       <c r="F5" s="10"/>
       <c r="G5" s="11"/>
@@ -2423,10 +2426,10 @@
       <c r="T5" s="17"/>
     </row>
     <row r="6" spans="1:20" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="66">
+      <c r="A6" s="67">
         <v>2</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="70" t="s">
         <v>117</v>
       </c>
       <c r="C6" s="40" t="s">
@@ -2469,10 +2472,10 @@
       </c>
       <c r="T6" s="17"/>
     </row>
-    <row r="7" spans="1:20" s="3" customFormat="1" ht="13.5">
-      <c r="A7" s="68"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="80" t="s">
+    <row r="7" spans="1:20" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A7" s="69"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="81" t="s">
         <v>55</v>
       </c>
       <c r="D7" s="50" t="s">
@@ -2498,16 +2501,24 @@
         <f t="shared" ref="O7:O67" si="0">IF(OR(M7="",N7=""),"",NETWORKDAYS(M7,N7))</f>
         <v>4</v>
       </c>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="21"/>
+      <c r="P7" s="11">
+        <v>42950</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>42952</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="S7" s="21">
+        <v>4</v>
+      </c>
       <c r="T7" s="22"/>
     </row>
-    <row r="8" spans="1:20" s="3" customFormat="1" ht="13.5">
-      <c r="A8" s="68"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="81"/>
+    <row r="8" spans="1:20" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A8" s="69"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="51" t="s">
         <v>79</v>
       </c>
@@ -2537,10 +2548,10 @@
       <c r="S8" s="21"/>
       <c r="T8" s="22"/>
     </row>
-    <row r="9" spans="1:20" s="3" customFormat="1" ht="13.5">
-      <c r="A9" s="68"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="81"/>
+    <row r="9" spans="1:20" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A9" s="69"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="82"/>
       <c r="D9" s="51" t="s">
         <v>132</v>
       </c>
@@ -2578,10 +2589,10 @@
       </c>
       <c r="T9" s="22"/>
     </row>
-    <row r="10" spans="1:20" s="3" customFormat="1" ht="13.5">
-      <c r="A10" s="68"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="80" t="s">
+    <row r="10" spans="1:20" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A10" s="69"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="81" t="s">
         <v>56</v>
       </c>
       <c r="D10" s="50" t="s">
@@ -2622,10 +2633,10 @@
       </c>
       <c r="T10" s="22"/>
     </row>
-    <row r="11" spans="1:20" s="3" customFormat="1" ht="13.5">
-      <c r="A11" s="68"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="81"/>
+    <row r="11" spans="1:20" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A11" s="69"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="50" t="s">
         <v>80</v>
       </c>
@@ -2664,10 +2675,10 @@
       </c>
       <c r="T11" s="22"/>
     </row>
-    <row r="12" spans="1:20" s="3" customFormat="1" ht="13.5">
-      <c r="A12" s="68"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="81"/>
+    <row r="12" spans="1:20" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A12" s="69"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="50" t="s">
         <v>58</v>
       </c>
@@ -2706,10 +2717,10 @@
       </c>
       <c r="T12" s="22"/>
     </row>
-    <row r="13" spans="1:20" s="3" customFormat="1" ht="13.5">
-      <c r="A13" s="68"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="81"/>
+    <row r="13" spans="1:20" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A13" s="69"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="50" t="s">
         <v>59</v>
       </c>
@@ -2748,10 +2759,10 @@
       </c>
       <c r="T13" s="22"/>
     </row>
-    <row r="14" spans="1:20" s="3" customFormat="1" ht="13.5">
-      <c r="A14" s="68"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="82"/>
+    <row r="14" spans="1:20" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A14" s="69"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="83"/>
       <c r="D14" s="50" t="s">
         <v>57</v>
       </c>
@@ -2790,10 +2801,10 @@
       </c>
       <c r="T14" s="22"/>
     </row>
-    <row r="15" spans="1:20" s="3" customFormat="1" ht="13.5">
-      <c r="A15" s="68"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="80" t="s">
+    <row r="15" spans="1:20" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A15" s="69"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="81" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -2834,10 +2845,10 @@
       </c>
       <c r="T15" s="22"/>
     </row>
-    <row r="16" spans="1:20" s="3" customFormat="1" ht="13.5">
-      <c r="A16" s="68"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="81"/>
+    <row r="16" spans="1:20" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A16" s="69"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="82"/>
       <c r="D16" s="50" t="s">
         <v>63</v>
       </c>
@@ -2875,10 +2886,10 @@
       </c>
       <c r="T16" s="22"/>
     </row>
-    <row r="17" spans="1:20" s="3" customFormat="1" ht="13.5">
-      <c r="A17" s="68"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="81"/>
+    <row r="17" spans="1:20" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A17" s="69"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="82"/>
       <c r="D17" s="50" t="s">
         <v>64</v>
       </c>
@@ -2911,13 +2922,15 @@
       <c r="R17" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="S17" s="21"/>
+      <c r="S17" s="21">
+        <v>2</v>
+      </c>
       <c r="T17" s="22"/>
     </row>
-    <row r="18" spans="1:20" s="3" customFormat="1" ht="13.5">
-      <c r="A18" s="68"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="82"/>
+    <row r="18" spans="1:20" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A18" s="69"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="83"/>
       <c r="D18" s="50" t="s">
         <v>62</v>
       </c>
@@ -2941,16 +2954,24 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="21"/>
+      <c r="P18" s="11">
+        <v>42950</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>42951</v>
+      </c>
+      <c r="R18" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="S18" s="21">
+        <v>3</v>
+      </c>
       <c r="T18" s="22"/>
     </row>
-    <row r="19" spans="1:20" s="3" customFormat="1" ht="13.5">
-      <c r="A19" s="68"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="80" t="s">
+    <row r="19" spans="1:20" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A19" s="69"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="81" t="s">
         <v>66</v>
       </c>
       <c r="D19" s="50" t="s">
@@ -2982,10 +3003,10 @@
       <c r="S19" s="21"/>
       <c r="T19" s="22"/>
     </row>
-    <row r="20" spans="1:20" s="3" customFormat="1" ht="13.5">
-      <c r="A20" s="68"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="81"/>
+    <row r="20" spans="1:20" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A20" s="69"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="82"/>
       <c r="D20" s="50" t="s">
         <v>68</v>
       </c>
@@ -3015,10 +3036,10 @@
       <c r="S20" s="21"/>
       <c r="T20" s="22"/>
     </row>
-    <row r="21" spans="1:20" s="3" customFormat="1" ht="13.5">
-      <c r="A21" s="68"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="82"/>
+    <row r="21" spans="1:20" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A21" s="69"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="83"/>
       <c r="D21" s="50" t="s">
         <v>71</v>
       </c>
@@ -3048,10 +3069,10 @@
       <c r="S21" s="21"/>
       <c r="T21" s="22"/>
     </row>
-    <row r="22" spans="1:20" s="3" customFormat="1" ht="13.5">
-      <c r="A22" s="68"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="80" t="s">
+    <row r="22" spans="1:20" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A22" s="69"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="81" t="s">
         <v>69</v>
       </c>
       <c r="D22" s="36" t="s">
@@ -3092,10 +3113,10 @@
       </c>
       <c r="T22" s="22"/>
     </row>
-    <row r="23" spans="1:20" s="3" customFormat="1" ht="13.5">
-      <c r="A23" s="68"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="81"/>
+    <row r="23" spans="1:20" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A23" s="69"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="82"/>
       <c r="D23" s="36" t="s">
         <v>103</v>
       </c>
@@ -3134,10 +3155,10 @@
       </c>
       <c r="T23" s="22"/>
     </row>
-    <row r="24" spans="1:20" s="3" customFormat="1" ht="13.5">
-      <c r="A24" s="68"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="81"/>
+    <row r="24" spans="1:20" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A24" s="69"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="82"/>
       <c r="D24" s="36" t="s">
         <v>104</v>
       </c>
@@ -3176,10 +3197,10 @@
       </c>
       <c r="T24" s="22"/>
     </row>
-    <row r="25" spans="1:20" s="4" customFormat="1" ht="27">
-      <c r="A25" s="68"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="82"/>
+    <row r="25" spans="1:20" s="4" customFormat="1" ht="27" customHeight="1">
+      <c r="A25" s="69"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="83"/>
       <c r="D25" s="34" t="s">
         <v>105</v>
       </c>
@@ -3220,10 +3241,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:20" s="4" customFormat="1">
-      <c r="A26" s="68"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="83" t="s">
+    <row r="26" spans="1:20" s="4" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A26" s="69"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="84" t="s">
         <v>81</v>
       </c>
       <c r="D26" s="52" t="s">
@@ -3263,10 +3284,10 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="4" customFormat="1">
-      <c r="A27" s="68"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="81"/>
+    <row r="27" spans="1:20" s="4" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A27" s="69"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="82"/>
       <c r="D27" s="52" t="s">
         <v>84</v>
       </c>
@@ -3304,10 +3325,10 @@
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="4" customFormat="1">
-      <c r="A28" s="68"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="81"/>
+    <row r="28" spans="1:20" s="4" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A28" s="69"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="82"/>
       <c r="D28" s="52" t="s">
         <v>85</v>
       </c>
@@ -3333,14 +3354,18 @@
       </c>
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="21"/>
+      <c r="R28" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="S28" s="21">
+        <v>2</v>
+      </c>
       <c r="T28" s="19"/>
     </row>
-    <row r="29" spans="1:20" s="4" customFormat="1">
-      <c r="A29" s="68"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="81"/>
+    <row r="29" spans="1:20" s="4" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A29" s="69"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="82"/>
       <c r="D29" s="52" t="s">
         <v>86</v>
       </c>
@@ -3370,10 +3395,10 @@
       <c r="S29" s="21"/>
       <c r="T29" s="19"/>
     </row>
-    <row r="30" spans="1:20" s="4" customFormat="1">
-      <c r="A30" s="68"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="81"/>
+    <row r="30" spans="1:20" s="4" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A30" s="69"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="82"/>
       <c r="D30" s="52" t="s">
         <v>87</v>
       </c>
@@ -3399,14 +3424,18 @@
       </c>
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="21"/>
+      <c r="R30" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="S30" s="21">
+        <v>2</v>
+      </c>
       <c r="T30" s="19"/>
     </row>
     <row r="31" spans="1:20" s="4" customFormat="1" ht="13.5">
-      <c r="A31" s="68"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="80" t="s">
+      <c r="A31" s="69"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="81" t="s">
         <v>70</v>
       </c>
       <c r="D31" s="34" t="s">
@@ -3435,19 +3464,21 @@
       <c r="P31" s="11">
         <v>42942</v>
       </c>
-      <c r="Q31" s="11"/>
+      <c r="Q31" s="11">
+        <v>42947</v>
+      </c>
       <c r="R31" s="11" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="S31" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T31" s="19"/>
     </row>
     <row r="32" spans="1:20" s="4" customFormat="1" ht="13.5">
-      <c r="A32" s="68"/>
-      <c r="B32" s="71"/>
-      <c r="C32" s="81"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="82"/>
       <c r="D32" s="34" t="s">
         <v>92</v>
       </c>
@@ -3471,16 +3502,24 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="21"/>
+      <c r="P32" s="11">
+        <v>42948</v>
+      </c>
+      <c r="Q32" s="11">
+        <v>42950</v>
+      </c>
+      <c r="R32" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="S32" s="21">
+        <v>3</v>
+      </c>
       <c r="T32" s="19"/>
     </row>
     <row r="33" spans="1:20" s="4" customFormat="1" ht="13.5">
-      <c r="A33" s="68"/>
-      <c r="B33" s="71"/>
-      <c r="C33" s="82"/>
+      <c r="A33" s="69"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="83"/>
       <c r="D33" s="34" t="s">
         <v>93</v>
       </c>
@@ -3504,16 +3543,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="P33" s="11"/>
+      <c r="P33" s="11">
+        <v>42951</v>
+      </c>
       <c r="Q33" s="11"/>
       <c r="R33" s="11"/>
       <c r="S33" s="21"/>
       <c r="T33" s="19"/>
     </row>
-    <row r="34" spans="1:20" s="4" customFormat="1" ht="13.5">
-      <c r="A34" s="68"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="80" t="s">
+    <row r="34" spans="1:20" s="4" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A34" s="69"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="81" t="s">
         <v>72</v>
       </c>
       <c r="D34" s="34" t="s">
@@ -3545,10 +3586,10 @@
       <c r="S34" s="21"/>
       <c r="T34" s="19"/>
     </row>
-    <row r="35" spans="1:20" s="4" customFormat="1" ht="13.5">
-      <c r="A35" s="68"/>
-      <c r="B35" s="71"/>
-      <c r="C35" s="82"/>
+    <row r="35" spans="1:20" s="4" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A35" s="69"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="83"/>
       <c r="D35" s="34" t="s">
         <v>95</v>
       </c>
@@ -3578,10 +3619,10 @@
       <c r="S35" s="21"/>
       <c r="T35" s="19"/>
     </row>
-    <row r="36" spans="1:20" s="4" customFormat="1">
-      <c r="A36" s="68"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="80" t="s">
+    <row r="36" spans="1:20" s="4" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A36" s="69"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="81" t="s">
         <v>73</v>
       </c>
       <c r="D36" s="53" t="s">
@@ -3622,10 +3663,10 @@
       </c>
       <c r="T36" s="19"/>
     </row>
-    <row r="37" spans="1:20" s="4" customFormat="1">
-      <c r="A37" s="68"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="81"/>
+    <row r="37" spans="1:20" s="4" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A37" s="69"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="82"/>
       <c r="D37" s="53" t="s">
         <v>75</v>
       </c>
@@ -3664,10 +3705,10 @@
       </c>
       <c r="T37" s="19"/>
     </row>
-    <row r="38" spans="1:20" s="4" customFormat="1">
-      <c r="A38" s="68"/>
-      <c r="B38" s="71"/>
-      <c r="C38" s="81"/>
+    <row r="38" spans="1:20" s="4" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A38" s="69"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="82"/>
       <c r="D38" s="53" t="s">
         <v>76</v>
       </c>
@@ -3706,10 +3747,10 @@
       </c>
       <c r="T38" s="19"/>
     </row>
-    <row r="39" spans="1:20" s="4" customFormat="1">
-      <c r="A39" s="68"/>
-      <c r="B39" s="71"/>
-      <c r="C39" s="81"/>
+    <row r="39" spans="1:20" s="4" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A39" s="69"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="82"/>
       <c r="D39" s="40" t="s">
         <v>77</v>
       </c>
@@ -3748,9 +3789,9 @@
       </c>
       <c r="T39" s="19"/>
     </row>
-    <row r="40" spans="1:20" s="4" customFormat="1" ht="13.5">
-      <c r="A40" s="68"/>
-      <c r="B40" s="70"/>
+    <row r="40" spans="1:20" s="4" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A40" s="69"/>
+      <c r="B40" s="71"/>
       <c r="C40" s="55" t="s">
         <v>82</v>
       </c>
@@ -3791,11 +3832,11 @@
       <c r="T40" s="19"/>
     </row>
     <row r="41" spans="1:20" s="4" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A41" s="68"/>
-      <c r="B41" s="65" t="s">
+      <c r="A41" s="69"/>
+      <c r="B41" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="C41" s="79" t="s">
+      <c r="C41" s="80" t="s">
         <v>99</v>
       </c>
       <c r="D41" s="8" t="s">
@@ -3836,10 +3877,10 @@
       </c>
       <c r="T41" s="19"/>
     </row>
-    <row r="42" spans="1:20" s="4" customFormat="1" ht="13.5">
-      <c r="A42" s="68"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="74"/>
+    <row r="42" spans="1:20" s="4" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A42" s="69"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="8" t="s">
         <v>98</v>
       </c>
@@ -3878,10 +3919,10 @@
       </c>
       <c r="T42" s="19"/>
     </row>
-    <row r="43" spans="1:20" s="4" customFormat="1" ht="13.5">
-      <c r="A43" s="68"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="75" t="s">
+    <row r="43" spans="1:20" s="4" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A43" s="69"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="76" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="8" t="s">
@@ -3922,10 +3963,10 @@
       </c>
       <c r="T43" s="19"/>
     </row>
-    <row r="44" spans="1:20" s="4" customFormat="1" ht="13.5">
-      <c r="A44" s="68"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="75"/>
+    <row r="44" spans="1:20" s="4" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A44" s="69"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="8" t="s">
         <v>18</v>
       </c>
@@ -3964,10 +4005,10 @@
       </c>
       <c r="T44" s="19"/>
     </row>
-    <row r="45" spans="1:20" s="4" customFormat="1" ht="13.5">
-      <c r="A45" s="68"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="76" t="s">
+    <row r="45" spans="1:20" s="4" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A45" s="69"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="77" t="s">
         <v>19</v>
       </c>
       <c r="D45" s="8" t="s">
@@ -4008,10 +4049,10 @@
       </c>
       <c r="T45" s="19"/>
     </row>
-    <row r="46" spans="1:20" s="4" customFormat="1" ht="13.5">
-      <c r="A46" s="68"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="77"/>
+    <row r="46" spans="1:20" s="4" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A46" s="69"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="78"/>
       <c r="D46" s="8" t="s">
         <v>20</v>
       </c>
@@ -4035,16 +4076,24 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="20"/>
-      <c r="R46" s="11"/>
-      <c r="S46" s="21"/>
+      <c r="P46" s="11">
+        <v>42947</v>
+      </c>
+      <c r="Q46" s="11">
+        <v>42951</v>
+      </c>
+      <c r="R46" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="S46" s="21">
+        <v>6</v>
+      </c>
       <c r="T46" s="19"/>
     </row>
-    <row r="47" spans="1:20" s="4" customFormat="1" ht="13.5">
-      <c r="A47" s="68"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="78"/>
+    <row r="47" spans="1:20" s="4" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A47" s="69"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="79"/>
       <c r="D47" s="8" t="s">
         <v>21</v>
       </c>
@@ -4074,10 +4123,10 @@
       <c r="S47" s="21"/>
       <c r="T47" s="24"/>
     </row>
-    <row r="48" spans="1:20" s="4" customFormat="1" ht="13.5">
-      <c r="A48" s="68"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="75" t="s">
+    <row r="48" spans="1:20" s="4" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A48" s="69"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="76" t="s">
         <v>22</v>
       </c>
       <c r="D48" s="8" t="s">
@@ -4118,10 +4167,10 @@
       </c>
       <c r="T48" s="19"/>
     </row>
-    <row r="49" spans="1:20" s="4" customFormat="1" ht="13.5">
-      <c r="A49" s="68"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="75"/>
+    <row r="49" spans="1:20" s="4" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A49" s="69"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="8" t="s">
         <v>24</v>
       </c>
@@ -4160,9 +4209,9 @@
       </c>
       <c r="T49" s="19"/>
     </row>
-    <row r="50" spans="1:20" s="4" customFormat="1" ht="13.5">
-      <c r="A50" s="68"/>
-      <c r="B50" s="65"/>
+    <row r="50" spans="1:20" s="4" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A50" s="69"/>
+      <c r="B50" s="66"/>
       <c r="C50" s="54" t="s">
         <v>52</v>
       </c>
@@ -4204,10 +4253,10 @@
       </c>
       <c r="T50" s="19"/>
     </row>
-    <row r="51" spans="1:20" s="4" customFormat="1" ht="13.5">
-      <c r="A51" s="68"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="73" t="s">
+    <row r="51" spans="1:20" s="4" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A51" s="69"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="74" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="8" t="s">
@@ -4248,10 +4297,10 @@
       </c>
       <c r="T51" s="19"/>
     </row>
-    <row r="52" spans="1:20" s="4" customFormat="1" ht="13.5">
-      <c r="A52" s="68"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="74"/>
+    <row r="52" spans="1:20" s="4" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A52" s="69"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="31" t="s">
         <v>26</v>
       </c>
@@ -4291,9 +4340,9 @@
       <c r="T52" s="19"/>
     </row>
     <row r="53" spans="1:20" s="4" customFormat="1" ht="13.5">
-      <c r="A53" s="68"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="73" t="s">
+      <c r="A53" s="69"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="74" t="s">
         <v>27</v>
       </c>
       <c r="D53" s="8" t="s">
@@ -4333,10 +4382,10 @@
       </c>
       <c r="T53" s="19"/>
     </row>
-    <row r="54" spans="1:20" s="4" customFormat="1" ht="13.5">
-      <c r="A54" s="68"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="79"/>
+    <row r="54" spans="1:20" s="4" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A54" s="69"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="80"/>
       <c r="D54" s="8" t="s">
         <v>29</v>
       </c>
@@ -4374,10 +4423,10 @@
       </c>
       <c r="T54" s="19"/>
     </row>
-    <row r="55" spans="1:20" s="4" customFormat="1" ht="13.5">
-      <c r="A55" s="68"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="74"/>
+    <row r="55" spans="1:20" s="4" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A55" s="69"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="75"/>
       <c r="D55" s="8" t="s">
         <v>30</v>
       </c>
@@ -4416,10 +4465,10 @@
       </c>
       <c r="T55" s="19"/>
     </row>
-    <row r="56" spans="1:20" s="4" customFormat="1" ht="13.5">
-      <c r="A56" s="68"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="73" t="s">
+    <row r="56" spans="1:20" s="4" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A56" s="69"/>
+      <c r="B56" s="66"/>
+      <c r="C56" s="74" t="s">
         <v>31</v>
       </c>
       <c r="D56" s="8" t="s">
@@ -4451,10 +4500,10 @@
       <c r="S56" s="21"/>
       <c r="T56" s="19"/>
     </row>
-    <row r="57" spans="1:20" s="4" customFormat="1" ht="13.5">
-      <c r="A57" s="68"/>
-      <c r="B57" s="65"/>
-      <c r="C57" s="79"/>
+    <row r="57" spans="1:20" s="4" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A57" s="69"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="80"/>
       <c r="D57" s="8" t="s">
         <v>33</v>
       </c>
@@ -4490,10 +4539,10 @@
       </c>
       <c r="T57" s="19"/>
     </row>
-    <row r="58" spans="1:20" s="4" customFormat="1" ht="13.5">
-      <c r="A58" s="68"/>
-      <c r="B58" s="65"/>
-      <c r="C58" s="74"/>
+    <row r="58" spans="1:20" s="4" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A58" s="69"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="8" t="s">
         <v>34</v>
       </c>
@@ -4517,16 +4566,24 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="20"/>
-      <c r="R58" s="20"/>
-      <c r="S58" s="21"/>
-      <c r="T58" s="19"/>
-    </row>
-    <row r="59" spans="1:20" s="4" customFormat="1" ht="13.5">
-      <c r="A59" s="68"/>
-      <c r="B59" s="65"/>
-      <c r="C59" s="73" t="s">
+      <c r="P58" s="11">
+        <v>42940</v>
+      </c>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="S58" s="21">
+        <v>4</v>
+      </c>
+      <c r="T58" s="63">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" s="4" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A59" s="69"/>
+      <c r="B59" s="66"/>
+      <c r="C59" s="74" t="s">
         <v>35</v>
       </c>
       <c r="D59" s="8" t="s">
@@ -4567,10 +4624,10 @@
       </c>
       <c r="T59" s="19"/>
     </row>
-    <row r="60" spans="1:20" s="4" customFormat="1" ht="13.5">
-      <c r="A60" s="68"/>
-      <c r="B60" s="65"/>
-      <c r="C60" s="79"/>
+    <row r="60" spans="1:20" s="4" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A60" s="69"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="80"/>
       <c r="D60" s="8" t="s">
         <v>37</v>
       </c>
@@ -4609,10 +4666,10 @@
       </c>
       <c r="T60" s="19"/>
     </row>
-    <row r="61" spans="1:20" s="4" customFormat="1" ht="13.5">
-      <c r="A61" s="68"/>
-      <c r="B61" s="65"/>
-      <c r="C61" s="79"/>
+    <row r="61" spans="1:20" s="4" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A61" s="69"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="80"/>
       <c r="D61" s="8" t="s">
         <v>38</v>
       </c>
@@ -4651,10 +4708,10 @@
       </c>
       <c r="T61" s="19"/>
     </row>
-    <row r="62" spans="1:20" s="4" customFormat="1" ht="13.5">
-      <c r="A62" s="68"/>
-      <c r="B62" s="65"/>
-      <c r="C62" s="74"/>
+    <row r="62" spans="1:20" s="4" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A62" s="69"/>
+      <c r="B62" s="66"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="8" t="s">
         <v>39</v>
       </c>
@@ -4693,10 +4750,10 @@
       </c>
       <c r="T62" s="19"/>
     </row>
-    <row r="63" spans="1:20" s="4" customFormat="1" ht="13.5">
-      <c r="A63" s="68"/>
-      <c r="B63" s="65"/>
-      <c r="C63" s="73" t="s">
+    <row r="63" spans="1:20" s="4" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A63" s="69"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="74" t="s">
         <v>46</v>
       </c>
       <c r="D63" s="8" t="s">
@@ -4734,10 +4791,10 @@
       </c>
       <c r="T63" s="19"/>
     </row>
-    <row r="64" spans="1:20" s="4" customFormat="1" ht="13.5">
-      <c r="A64" s="68"/>
-      <c r="B64" s="65"/>
-      <c r="C64" s="74"/>
+    <row r="64" spans="1:20" s="4" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A64" s="69"/>
+      <c r="B64" s="66"/>
+      <c r="C64" s="75"/>
       <c r="D64" s="8" t="s">
         <v>41</v>
       </c>
@@ -4774,9 +4831,9 @@
       <c r="T64" s="19"/>
     </row>
     <row r="65" spans="1:20" s="4" customFormat="1" ht="13.5">
-      <c r="A65" s="68"/>
-      <c r="B65" s="65"/>
-      <c r="C65" s="72" t="s">
+      <c r="A65" s="69"/>
+      <c r="B65" s="66"/>
+      <c r="C65" s="73" t="s">
         <v>45</v>
       </c>
       <c r="D65" s="56" t="s">
@@ -4812,9 +4869,9 @@
       </c>
     </row>
     <row r="66" spans="1:20" s="4" customFormat="1" ht="13.5">
-      <c r="A66" s="68"/>
-      <c r="B66" s="65"/>
-      <c r="C66" s="72"/>
+      <c r="A66" s="69"/>
+      <c r="B66" s="66"/>
+      <c r="C66" s="73"/>
       <c r="D66" s="8" t="s">
         <v>47</v>
       </c>
@@ -4853,9 +4910,9 @@
       <c r="T66" s="19"/>
     </row>
     <row r="67" spans="1:20" s="4" customFormat="1" ht="13.5">
-      <c r="A67" s="68"/>
-      <c r="B67" s="65"/>
-      <c r="C67" s="72"/>
+      <c r="A67" s="69"/>
+      <c r="B67" s="66"/>
+      <c r="C67" s="73"/>
       <c r="D67" s="8" t="s">
         <v>48</v>
       </c>
@@ -4894,9 +4951,9 @@
       <c r="T67" s="19"/>
     </row>
     <row r="68" spans="1:20" s="4" customFormat="1" ht="13.5">
-      <c r="A68" s="68"/>
-      <c r="B68" s="65"/>
-      <c r="C68" s="72"/>
+      <c r="A68" s="69"/>
+      <c r="B68" s="66"/>
+      <c r="C68" s="73"/>
       <c r="D68" s="56" t="s">
         <v>49</v>
       </c>
@@ -4930,9 +4987,9 @@
       </c>
     </row>
     <row r="69" spans="1:20" s="4" customFormat="1" ht="13.5">
-      <c r="A69" s="67"/>
-      <c r="B69" s="65"/>
-      <c r="C69" s="72"/>
+      <c r="A69" s="68"/>
+      <c r="B69" s="66"/>
+      <c r="C69" s="73"/>
       <c r="D69" s="56" t="s">
         <v>50</v>
       </c>
@@ -4966,16 +5023,16 @@
       </c>
     </row>
     <row r="70" spans="1:20" s="4" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A70" s="66">
+      <c r="A70" s="67">
         <v>3</v>
       </c>
-      <c r="B70" s="65" t="s">
+      <c r="B70" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="C70" s="63" t="s">
+      <c r="C70" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="D70" s="64"/>
+      <c r="D70" s="65"/>
       <c r="E70" s="9"/>
       <c r="F70" s="10"/>
       <c r="G70" s="11"/>
@@ -5001,12 +5058,12 @@
       <c r="T70" s="19"/>
     </row>
     <row r="71" spans="1:20" s="4" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A71" s="67"/>
-      <c r="B71" s="65"/>
-      <c r="C71" s="63" t="s">
+      <c r="A71" s="68"/>
+      <c r="B71" s="66"/>
+      <c r="C71" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="D71" s="64"/>
+      <c r="D71" s="65"/>
       <c r="E71" s="9"/>
       <c r="F71" s="10"/>
       <c r="G71" s="11"/>
@@ -5031,17 +5088,17 @@
       <c r="S71" s="18"/>
       <c r="T71" s="19"/>
     </row>
-    <row r="72" spans="1:20" s="4" customFormat="1" ht="27">
+    <row r="72" spans="1:20" s="4" customFormat="1" ht="27" customHeight="1">
       <c r="A72" s="48">
         <v>4</v>
       </c>
       <c r="B72" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="C72" s="63" t="s">
+      <c r="C72" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="D72" s="64"/>
+      <c r="D72" s="65"/>
       <c r="E72" s="9"/>
       <c r="F72" s="10"/>
       <c r="G72" s="11"/>
@@ -5068,17 +5125,17 @@
       <c r="S72" s="21"/>
       <c r="T72" s="19"/>
     </row>
-    <row r="73" spans="1:20" s="4" customFormat="1" ht="27">
+    <row r="73" spans="1:20" s="4" customFormat="1" ht="27" customHeight="1">
       <c r="A73" s="48">
         <v>5</v>
       </c>
       <c r="B73" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="C73" s="63" t="s">
+      <c r="C73" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="D73" s="64"/>
+      <c r="D73" s="65"/>
       <c r="E73" s="9"/>
       <c r="F73" s="10"/>
       <c r="G73" s="11"/>

--- a/3.ehome/02-项目计划/普及科技项目开发进度计划 V1.0.xlsx
+++ b/3.ehome/02-项目计划/普及科技项目开发进度计划 V1.0.xlsx
@@ -13,10 +13,10 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">项目进度计划!$A$3:$T$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">项目进度计划!$A$3:$T$75</definedName>
     <definedName name="P_ALL">#REF!</definedName>
     <definedName name="P_LOG">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">项目进度计划!$A$1:$U$73</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">项目进度计划!$A$1:$U$75</definedName>
     <definedName name="R_LOG">#REF!</definedName>
     <definedName name="StaffName">[1]定义!$D$4:$D$73</definedName>
   </definedNames>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="138">
   <si>
     <t>项目进度计划</t>
   </si>
@@ -585,7 +585,11 @@
     <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
-    <t>进行中</t>
+    <t>握手金融</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘强</t>
     <phoneticPr fontId="41" type="noConversion"/>
   </si>
 </sst>
@@ -1428,7 +1432,7 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1740,8 +1744,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="68">
@@ -2203,13 +2213,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T73"/>
+  <dimension ref="A1:T75"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T53" sqref="T53"/>
+      <selection pane="bottomRight" activeCell="S64" sqref="S63:S64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3050,9 +3060,11 @@
       <c r="P20" s="11">
         <v>42958</v>
       </c>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11" t="s">
-        <v>136</v>
+      <c r="Q20" s="11">
+        <v>42961</v>
+      </c>
+      <c r="R20" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="S20" s="21">
         <v>2</v>
@@ -3086,9 +3098,15 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
+      <c r="P21" s="29">
+        <v>42962</v>
+      </c>
+      <c r="Q21" s="29">
+        <v>42964</v>
+      </c>
+      <c r="R21" s="23" t="s">
+        <v>108</v>
+      </c>
       <c r="S21" s="21">
         <v>3</v>
       </c>
@@ -3617,10 +3635,18 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="21"/>
+      <c r="P34" s="11">
+        <v>42961</v>
+      </c>
+      <c r="Q34" s="11">
+        <v>42962</v>
+      </c>
+      <c r="R34" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="S34" s="21">
+        <v>2</v>
+      </c>
       <c r="T34" s="19"/>
     </row>
     <row r="35" spans="1:20" s="4" customFormat="1" ht="13.5" customHeight="1">
@@ -3650,10 +3676,18 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="21"/>
+      <c r="P35" s="29">
+        <v>42963</v>
+      </c>
+      <c r="Q35" s="29">
+        <v>42964</v>
+      </c>
+      <c r="R35" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="S35" s="21">
+        <v>2</v>
+      </c>
       <c r="T35" s="19"/>
     </row>
     <row r="36" spans="1:20" s="4" customFormat="1" ht="14.25" customHeight="1">
@@ -4157,12 +4191,14 @@
       <c r="P47" s="29">
         <v>42956</v>
       </c>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="11" t="s">
-        <v>136</v>
+      <c r="Q47" s="29">
+        <v>42964</v>
+      </c>
+      <c r="R47" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="S47" s="21">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T47" s="24"/>
     </row>
@@ -4537,10 +4573,18 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="20"/>
-      <c r="R56" s="20"/>
-      <c r="S56" s="21"/>
+      <c r="P56" s="29">
+        <v>42961</v>
+      </c>
+      <c r="Q56" s="29">
+        <v>42964</v>
+      </c>
+      <c r="R56" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="S56" s="21">
+        <v>4</v>
+      </c>
       <c r="T56" s="19"/>
     </row>
     <row r="57" spans="1:20" s="4" customFormat="1" ht="13.5" customHeight="1">
@@ -4573,12 +4617,14 @@
       <c r="P57" s="30">
         <v>42940</v>
       </c>
-      <c r="Q57" s="20"/>
-      <c r="R57" s="11" t="s">
-        <v>109</v>
+      <c r="Q57" s="30">
+        <v>42949</v>
+      </c>
+      <c r="R57" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="S57" s="21">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T57" s="19"/>
     </row>
@@ -4586,38 +4632,37 @@
       <c r="A58" s="93"/>
       <c r="B58" s="90"/>
       <c r="C58" s="83"/>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="E58" s="9"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="23" t="s">
+      <c r="E58" s="57"/>
+      <c r="F58" s="58"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="59"/>
+      <c r="J58" s="59"/>
+      <c r="K58" s="59"/>
+      <c r="L58" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="M58" s="11">
+      <c r="M58" s="59">
         <v>42940</v>
       </c>
-      <c r="N58" s="11">
+      <c r="N58" s="59">
         <v>42947</v>
       </c>
-      <c r="O58" s="18">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="P58" s="11">
+      <c r="O58" s="61">
+        <v>0</v>
+      </c>
+      <c r="P58" s="59">
         <v>42940</v>
       </c>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="23" t="s">
-        <v>133</v>
+      <c r="Q58" s="59"/>
+      <c r="R58" s="62" t="s">
+        <v>129</v>
       </c>
       <c r="S58" s="21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T58" s="63"/>
     </row>
@@ -4874,7 +4919,7 @@
     <row r="65" spans="1:20" s="4" customFormat="1" ht="13.5">
       <c r="A65" s="93"/>
       <c r="B65" s="90"/>
-      <c r="C65" s="97" t="s">
+      <c r="C65" s="98" t="s">
         <v>45</v>
       </c>
       <c r="D65" s="56" t="s">
@@ -4912,7 +4957,7 @@
     <row r="66" spans="1:20" s="4" customFormat="1" ht="13.5">
       <c r="A66" s="93"/>
       <c r="B66" s="90"/>
-      <c r="C66" s="97"/>
+      <c r="C66" s="99"/>
       <c r="D66" s="8" t="s">
         <v>47</v>
       </c>
@@ -4953,7 +4998,7 @@
     <row r="67" spans="1:20" s="4" customFormat="1" ht="13.5">
       <c r="A67" s="93"/>
       <c r="B67" s="90"/>
-      <c r="C67" s="97"/>
+      <c r="C67" s="99"/>
       <c r="D67" s="8" t="s">
         <v>48</v>
       </c>
@@ -4994,7 +5039,7 @@
     <row r="68" spans="1:20" s="4" customFormat="1" ht="13.5">
       <c r="A68" s="93"/>
       <c r="B68" s="90"/>
-      <c r="C68" s="97"/>
+      <c r="C68" s="99"/>
       <c r="D68" s="56" t="s">
         <v>49</v>
       </c>
@@ -5028,9 +5073,9 @@
       </c>
     </row>
     <row r="69" spans="1:20" s="4" customFormat="1" ht="13.5">
-      <c r="A69" s="92"/>
+      <c r="A69" s="93"/>
       <c r="B69" s="90"/>
-      <c r="C69" s="97"/>
+      <c r="C69" s="99"/>
       <c r="D69" s="56" t="s">
         <v>50</v>
       </c>
@@ -5063,165 +5108,219 @@
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="1:20" s="4" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A70" s="91">
+    <row r="70" spans="1:20" s="4" customFormat="1" ht="13.5">
+      <c r="A70" s="93"/>
+      <c r="B70" s="90"/>
+      <c r="C70" s="97" t="s">
+        <v>136</v>
+      </c>
+      <c r="D70" s="56"/>
+      <c r="E70" s="57"/>
+      <c r="F70" s="58"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="59"/>
+      <c r="J70" s="59"/>
+      <c r="K70" s="59"/>
+      <c r="L70" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="M70" s="59">
+        <v>42965</v>
+      </c>
+      <c r="N70" s="59">
+        <v>42972</v>
+      </c>
+      <c r="O70" s="61">
+        <v>10</v>
+      </c>
+      <c r="P70" s="59"/>
+      <c r="Q70" s="62"/>
+      <c r="R70" s="62"/>
+      <c r="S70" s="21"/>
+      <c r="T70" s="19"/>
+    </row>
+    <row r="71" spans="1:20" s="4" customFormat="1" ht="13.5">
+      <c r="A71" s="93"/>
+      <c r="B71" s="90"/>
+      <c r="C71" s="97"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="57"/>
+      <c r="F71" s="58"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="59"/>
+      <c r="J71" s="59"/>
+      <c r="K71" s="59"/>
+      <c r="L71" s="60"/>
+      <c r="M71" s="59"/>
+      <c r="N71" s="59"/>
+      <c r="O71" s="61"/>
+      <c r="P71" s="59"/>
+      <c r="Q71" s="62"/>
+      <c r="R71" s="62"/>
+      <c r="S71" s="21"/>
+      <c r="T71" s="19"/>
+    </row>
+    <row r="72" spans="1:20" s="4" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A72" s="91">
         <v>3</v>
       </c>
-      <c r="B70" s="90" t="s">
+      <c r="B72" s="90" t="s">
         <v>119</v>
       </c>
-      <c r="C70" s="88" t="s">
+      <c r="C72" s="88" t="s">
         <v>123</v>
-      </c>
-      <c r="D70" s="89"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="44"/>
-      <c r="L70" s="45"/>
-      <c r="M70" s="11">
-        <v>42926</v>
-      </c>
-      <c r="N70" s="11">
-        <v>42930</v>
-      </c>
-      <c r="O70" s="42">
-        <f>IF(OR(M70="",N70=""),"",NETWORKDAYS(M70,N70))</f>
-        <v>5</v>
-      </c>
-      <c r="P70" s="11"/>
-      <c r="Q70" s="11"/>
-      <c r="R70" s="11"/>
-      <c r="S70" s="18"/>
-      <c r="T70" s="19"/>
-    </row>
-    <row r="71" spans="1:20" s="4" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A71" s="92"/>
-      <c r="B71" s="90"/>
-      <c r="C71" s="88" t="s">
-        <v>120</v>
-      </c>
-      <c r="D71" s="89"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="11"/>
-      <c r="K71" s="44"/>
-      <c r="L71" s="45"/>
-      <c r="M71" s="11">
-        <v>42933</v>
-      </c>
-      <c r="N71" s="11">
-        <v>42978</v>
-      </c>
-      <c r="O71" s="42">
-        <f>IF(OR(M71="",N71=""),"",NETWORKDAYS(M71,N71))*2</f>
-        <v>68</v>
-      </c>
-      <c r="P71" s="11"/>
-      <c r="Q71" s="11"/>
-      <c r="R71" s="11"/>
-      <c r="S71" s="18"/>
-      <c r="T71" s="19"/>
-    </row>
-    <row r="72" spans="1:20" s="4" customFormat="1" ht="27" customHeight="1">
-      <c r="A72" s="48">
-        <v>4</v>
-      </c>
-      <c r="B72" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="C72" s="88" t="s">
-        <v>124</v>
       </c>
       <c r="D72" s="89"/>
       <c r="E72" s="9"/>
       <c r="F72" s="10"/>
       <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="16"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="11"/>
-      <c r="L72" s="23" t="s">
-        <v>128</v>
-      </c>
+      <c r="K72" s="44"/>
+      <c r="L72" s="45"/>
       <c r="M72" s="11">
-        <v>42979</v>
+        <v>42926</v>
       </c>
       <c r="N72" s="11">
-        <v>42993</v>
+        <v>42930</v>
       </c>
       <c r="O72" s="42">
-        <f>IF(OR(M72="",N72=""),"",NETWORKDAYS(M72,N72))*7</f>
-        <v>77</v>
+        <f>IF(OR(M72="",N72=""),"",NETWORKDAYS(M72,N72))</f>
+        <v>5</v>
       </c>
       <c r="P72" s="11"/>
-      <c r="Q72" s="20"/>
-      <c r="R72" s="23"/>
-      <c r="S72" s="21"/>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="11"/>
+      <c r="S72" s="18"/>
       <c r="T72" s="19"/>
     </row>
-    <row r="73" spans="1:20" s="4" customFormat="1" ht="27" customHeight="1">
-      <c r="A73" s="48">
-        <v>5</v>
-      </c>
-      <c r="B73" s="47" t="s">
-        <v>127</v>
-      </c>
+    <row r="73" spans="1:20" s="4" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A73" s="92"/>
+      <c r="B73" s="90"/>
       <c r="C73" s="88" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D73" s="89"/>
       <c r="E73" s="9"/>
       <c r="F73" s="10"/>
       <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="16"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
-      <c r="L73" s="23" t="s">
+      <c r="K73" s="44"/>
+      <c r="L73" s="45"/>
+      <c r="M73" s="11">
+        <v>42933</v>
+      </c>
+      <c r="N73" s="11">
+        <v>42978</v>
+      </c>
+      <c r="O73" s="42">
+        <f>IF(OR(M73="",N73=""),"",NETWORKDAYS(M73,N73))*2</f>
+        <v>68</v>
+      </c>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11"/>
+      <c r="S73" s="18"/>
+      <c r="T73" s="19"/>
+    </row>
+    <row r="74" spans="1:20" s="4" customFormat="1" ht="27" customHeight="1">
+      <c r="A74" s="48">
+        <v>4</v>
+      </c>
+      <c r="B74" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="C74" s="88" t="s">
+        <v>124</v>
+      </c>
+      <c r="D74" s="89"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="M73" s="11">
+      <c r="M74" s="11">
+        <v>42979</v>
+      </c>
+      <c r="N74" s="11">
         <v>42993</v>
       </c>
-      <c r="N73" s="11">
+      <c r="O74" s="42">
+        <f>IF(OR(M74="",N74=""),"",NETWORKDAYS(M74,N74))*7</f>
+        <v>77</v>
+      </c>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="20"/>
+      <c r="R74" s="23"/>
+      <c r="S74" s="21"/>
+      <c r="T74" s="19"/>
+    </row>
+    <row r="75" spans="1:20" s="4" customFormat="1" ht="27" customHeight="1">
+      <c r="A75" s="48">
+        <v>5</v>
+      </c>
+      <c r="B75" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="C75" s="88" t="s">
+        <v>125</v>
+      </c>
+      <c r="D75" s="89"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="M75" s="11">
+        <v>42993</v>
+      </c>
+      <c r="N75" s="11">
         <v>43009</v>
       </c>
-      <c r="O73" s="42">
-        <f>IF(OR(M73="",N73=""),"",NETWORKDAYS(M73,N73))*7</f>
+      <c r="O75" s="42">
+        <f>IF(OR(M75="",N75=""),"",NETWORKDAYS(M75,N75))*7</f>
         <v>77</v>
       </c>
-      <c r="P73" s="11"/>
-      <c r="Q73" s="20"/>
-      <c r="R73" s="23"/>
-      <c r="S73" s="21"/>
-      <c r="T73" s="19"/>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="20"/>
+      <c r="R75" s="23"/>
+      <c r="S75" s="21"/>
+      <c r="T75" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:T73">
+  <autoFilter ref="A3:T75">
     <filterColumn colId="11"/>
   </autoFilter>
   <mergeCells count="40">
+    <mergeCell ref="C65:C69"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="C72:D72"/>
     <mergeCell ref="C73:D73"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C74:D74"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="B6:B40"/>
-    <mergeCell ref="C65:C69"/>
-    <mergeCell ref="B41:B69"/>
+    <mergeCell ref="B41:B71"/>
     <mergeCell ref="C63:C64"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C45:C47"/>
@@ -5250,8 +5349,8 @@
     <mergeCell ref="C2:C3"/>
   </mergeCells>
   <phoneticPr fontId="41" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E73">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E75">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
   </dataValidations>
